--- a/DS_Mystery/Asia stock management/Потребность ШМТ 2023-06-12.xlsx
+++ b/DS_Mystery/Asia stock management/Потребность ШМТ 2023-06-12.xlsx
@@ -711,7 +711,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Артем', 'ЧЛ Барыс Оптовик Аруназ'], 'Семашко Елена Васильевна': ['ЧЛ 8 бутик Сайрам базар']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Артем'], 'Семашко Елена Васильевна': ['ЧЛ 8 бутик Сайрам базар']}</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN', 'ЧЛ MAXI BURGER']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ MAXI BURGER', 'ИП МАДИЕВА Кафе TJN']}</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN']}</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ BAIQONYR COFFEE STATION'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN', 'ЧЛ MAXI BURGER', 'ИП "ТУРСУМЕТОВА Г.А"'], 'Семашко Елена Васильевна': ['ЧЛ Бирлесу Кофе на вынос']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ MAXI BURGER', 'ИП "ТУРСУМЕТОВА Г.А"', 'ИП МАДИЕВА Кафе TJN'], 'Семашко Елена Васильевна': ['ЧЛ Бирлесу Кофе на вынос'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ BAIQONYR COFFEE STATION']}</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Артем'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ. Досжан Айна базар бутик 13']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ Талгат Айна базар'], 'Курбенова Аруна Мухановна': ['ЧЛ Артем']}</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ Талгат Айна базар', 'ЧЛ. Досжан Айна базар бутик 13'], 'Семашко Елена Васильевна': ['ЧЛ Гани Бутик 1В Алаш']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ Талгат Айна базар'], 'Семашко Елена Васильевна': ['ЧЛ Гани Бутик 1В Алаш']}</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"', 'ЧЛ Бектурсынова Салтанат Талгаткызы', 'ЧЛ Артем'], 'Семашко Елена Васильевна': ['ЧЛ Динара Молочный ряд', 'ЧЛ Мактарал Кафе', 'ЧЛ Магазин коктем', 'ЧЛ ICE Номер 1'], 'Иордакий Владислав Викторович': ['ЧЛ Чикен Центральный']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"', 'ЧЛ Бектурсынова Салтанат Талгаткызы', 'ЧЛ Артем'], 'Семашко Елена Васильевна': ['ЧЛ Магазин коктем', 'ЧЛ ICE Номер 1', 'ЧЛ Динара Молочный ряд', 'ЧЛ Мактарал Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Чикен Центральный']}</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Гульжан Алаш Бутик'], 'Семашко Елена Васильевна': ['ИП Абдибаева А']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Гульжан Алаш Бутик', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Талгат Айна базар'], 'Семашко Елена Васильевна': ['ИП Абдибаева А']}</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Pinta', 'ЧЛ Мадина Кофе Туркестан', 'ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"'], 'Иордакий Владислав Викторович': ['ЧЛ Лотус Пицца Аксу', 'ЧЛ Мини Маркет Аксу']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"', 'ЧЛ Pinta', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек'], 'Иордакий Владислав Викторович': ['ЧЛ Лотус Пицца Аксу', 'ЧЛ Мини Маркет Аксу']}</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс', 'ЧЛ Байжан'], 'Иордакий Владислав Викторович': ['ЧЛ Мини Маркет Аксу', 'ЧЛ Гульмира Лаваш']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс', 'ЧЛ Байжан'], 'Иордакий Владислав Викторович': ['ЧЛ Гульмира Лаваш', 'ЧЛ Мини Маркет Аксу']}</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО TVIV менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Понтос Арбат'], 'Абзалова Ольга Валерьевна': ['ЧЛ Казына Бутик 16', 'ИП Кофемолка']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Казына Бутик 16', 'ИП Кофемолка'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Понтос Арбат']}</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек'], 'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна']}</t>
+          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна'], 'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек']}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Три Самурая'], 'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Три Самурая']}</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек'], 'Салимбаев Адилбек Абдашевич': ['Чл Altyn adal'], 'Семашко Елена Васильевна': ['ЧЛ Дубай Ресторан', 'ЧЛ Каусар Сарыагаш'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['Чл Altyn adal'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Семашко Елена Васильевна': ['ЧЛ Дубай Ресторан', 'ЧЛ Каусар Сарыагаш'], 'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек']}</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Зайра', 'ЧЛ Нуржанбек'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Дархан']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Дархан'], 'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Зайра']}</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Мотодор', 'ЧЛ Зайра'], 'Семашко Елена Васильевна': ['ЧЛ Эргаш ата']}</t>
+          <t>Проверить заказы: {'Семашко Елена Васильевна': ['ЧЛ Эргаш ата'], 'Курбенова Аруна Мухановна': ['ЧЛ Мотодор', 'ЧЛ Зайра']}</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Александр Пакеты']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Александр Пакеты', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки']}</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе'], 'Абзалова Ольга Валерьевна': ['ЧЛ Оптовик Суинше  57 бутик', 'ЧЛ Талгат Айна базар']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Оптовик Суинше  57 бутик'], 'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе']}</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Казына Бутик 16', 'ЧЛ. Досжан Айна базар бутик 13']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ Казына Бутик 16']}</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Иордакий Владислав Викторович': ['ЧЛ Паризат Кафе Аксу', 'ЧЛ Оптовик Магазин'], 'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки'], 'Иордакий Владислав Викторович': ['ЧЛ Паризат Кафе Аксу', 'ЧЛ Оптовик Магазин']}</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Calista Ресто бар', 'ИП МАДИЕВА Кафе TJN', 'ЧЛ Ташходжаева', 'ЧЛ Мороженое Север', 'ЧЛ Мизам Баймухамед'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ КЕСЕ КАФЕ'], 'Абзалова Ольга Валерьевна': ['Чл. Омархан Ата кафе Самарканд', 'ЧЛ Максат кафе Виктория', 'ЧЛ Кафе Rabbit', 'ЧЛ Восточный пир'], 'Семашко Елена Васильевна': ['ЧЛ Дельфин Кафе', 'ЧЛ Пилигрим Кафе', 'ЧЛ Дильфуза Посуда']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['Чл. Омархан Ата кафе Самарканд', 'ЧЛ Максат кафе Виктория', 'ЧЛ Кафе Rabbit', 'ЧЛ Восточный пир'], 'Курбенова Аруна Мухановна': ['ЧЛ Мизам Баймухамед', 'ЧЛ Calista Ресто бар', 'ЧЛ Ташходжаева', 'ИП МАДИЕВА Кафе TJN', 'ЧЛ Мороженое Север'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ КЕСЕ КАФЕ'], 'Семашко Елена Васильевна': ['ЧЛ Дельфин Кафе', 'ЧЛ Дильфуза Посуда', 'ЧЛ Пилигрим Кафе']}</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Бектурсынова Салтанат Талгаткызы', 'ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Бектурсынова Салтанат Талгаткызы', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе']}</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Изюминка Галина менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ИП Кофемолка', 'ИП Coffeemolka'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ BAIQONYR COFFEE STATION']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ИП Coffeemolka', 'ИП Кофемолка'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ BAIQONYR COFFEE STATION']}</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ТОО TVIV'], 'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Мизам Баймухамед', 'ЧЛ Жаксыбек Барыс базар']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Жаксыбек Барыс базар', 'ЧЛ Мизам Баймухамед', 'ЧЛ Нуржанбек'], 'Абзалова Ольга Валерьевна': ['ТОО TVIV']}</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Копжан Мектеп', 'ЧЛ Нуржанбек'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Sergo кофейня 17 мкр', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ТОО TVIV', 'ЧЛ Кафе Rabbit']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ТОО TVIV', 'ЧЛ. Sergo кофейня 17 мкр', 'ЧЛ Кафе Rabbit'], 'Курбенова Аруна Мухановна': ['ЧЛ Копжан Мектеп', 'ЧЛ Нуржанбек']}</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Бектурсынова Салтанат Талгаткызы', 'ЧЛ Нуржанбек', 'ЧЛ Мадина Кофе Туркестан'], 'Салимбаев Адилбек Абдашевич': ['Чл Altyn adal', 'ЧЛ Procoffee'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['Чл Altyn adal', 'ЧЛ Procoffee'], 'Курбенова Аруна Мухановна': ['ЧЛ Бектурсынова Салтанат Талгаткызы', 'ЧЛ Нуржанбек', 'ЧЛ Мадина Кофе Туркестан'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Бухаро Кафе менеджера Семашко Елена Васильевна</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна'], 'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ТОО TVIV', 'ЧЛ Талгат Айна базар', 'ИП Кофемолка', 'ЧЛ. Досжан Айна базар бутик 13']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО TVIV', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ. Досжан Айна базар бутик 13', 'ИП Кофемолка', 'ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Ташходжаева'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Дархан']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Дархан'], 'Курбенова Аруна Мухановна': ['ЧЛ Ташходжаева']}</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN', 'ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО "Спортивно-оздоровительный комплекс ALMA-TAU"', 'ИП МАДИЕВА Кафе TJN']}</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Эфе Сп Торговый дом', 'ЧЛ КЕСЕ КАФЕ'], 'Курбенова Аруна Мухановна': ['ЧЛ Талгат 1000 мелочей', 'ИП МАДИЕВА Кафе TJN'], 'Семашко Елена Васильевна': ['ЧЛ Азиз Бутик 40', 'ЧЛ Эргаш ата']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Талгат 1000 мелочей', 'ИП МАДИЕВА Кафе TJN'], 'Семашко Елена Васильевна': ['ЧЛ Эргаш ата', 'ЧЛ Азиз Бутик 40'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Эфе Сп Торговый дом', 'ЧЛ КЕСЕ КАФЕ']}</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Столовая Заводская'], 'Курбенова Аруна Мухановна': ['ЧЛ Талгат 1000 мелочей'], 'Иордакий Владислав Викторович': ['ЧЛ S&amp;M Музтау']}</t>
+          <t>Опасная позиция, проверить!: {'Иордакий Владислав Викторович': ['ЧЛ S&amp;M Музтау'], 'Курбенова Аруна Мухановна': ['ЧЛ Талгат 1000 мелочей'], 'Семашко Елена Васильевна': ['ЧЛ Столовая Заводская']}</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ.Таукеева Гульжан Айна базар Мир упаковки менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Pinta'], 'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки'], 'Курбенова Аруна Мухановна': ['ЧЛ Pinta', 'ЧЛ Нуржанбек']}</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки'], 'Курбенова Аруна Мухановна': ['ИП "ТУРСУМЕТОВА Г.А"', 'ТОО "Global Coffee Company"']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ИП "ТУРСУМЕТОВА Г.А"'], 'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки']}</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Досжан Айна базар бутик 13 менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Меруерт Бутылка', 'ЧЛ Марат Асел', 'ЧЛ Мадина Кофе Туркестан']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Марат Асел', 'ЧЛ Меруерт Бутылка', 'ЧЛ Мадина Кофе Туркестан']}</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО TVIV менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Талгат Айна базар менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ЧЛ Азимхан Троллейбусный парк'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк', 'ТОО "Global Coffee Company"'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Кафе Rabbit', 'ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ АЯН 1000 мелочей'], 'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Азимхан Троллейбусный парк'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ Кафе Rabbit']}</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Кафе Rabbit', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ Рахима Канат 7', 'ЧЛ. Досжан Айна базар бутик 13', 'Чл Болатбек Акбар Чл Болатбек Акбар'], 'Семашко Елена Васильевна': ['ИП DAMDI', 'ЧЛ Жасулан Казыгурт']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Рахима Канат 7', 'Чл Болатбек Акбар Чл Болатбек Акбар', 'ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13', 'ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ Кафе Rabbit'], 'Семашко Елена Васильевна': ['ЧЛ Жасулан Казыгурт', 'ИП DAMDI']}</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Плов центр №1', 'ЧЛ BAIQONYR COFFEE STATION'], 'Абзалова Ольга Валерьевна': ['ОФ "Футбольный клуб "Елимай"', 'ЧЛ Талгат Айна базар', 'ЧЛ Григорьева Ольга', 'ЧЛ. Оптом пакеты Акбар Еркелды', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ Казына Бутик 16'], 'Курбенова Аруна Мухановна': ['ЧЛ MAXI BURGER'], 'Семашко Елена Васильевна': ['ЧЛ Жареная Рыба Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Яснуай Жибек жолы']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Казына Бутик 16', 'ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ОФ "Футбольный клуб "Елимай"', 'ЧЛ Ибраимова Рынок Оптовик бутик 45', 'ЧЛ Талгат Айна базар', 'ЧЛ. Оптом пакеты Акбар Еркелды', 'ЧЛ Григорьева Ольга'], 'Курбенова Аруна Мухановна': ['ЧЛ MAXI BURGER'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Плов центр №1', 'ЧЛ BAIQONYR COFFEE STATION'], 'Семашко Елена Васильевна': ['ЧЛ Жареная Рыба Кафе'], 'Иордакий Владислав Викторович': ['ЧЛ Яснуай Жибек жолы']}</t>
         </is>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ. Изюминка Галина менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Алаш Оптовик Бутик 44', 'ЧЛ Кафе Александра', 'ЧЛ Нурсултан Барыс'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13'], 'Курбенова Аруна Мухановна': ['ЧЛ Стрид-Фуд Авеню Арбат']}</t>
+          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Алаш Оптовик Бутик 44', 'ЧЛ Нурсултан Барыс', 'ЧЛ Кафе Александра'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ. Досжан Айна базар бутик 13'], 'Курбенова Аруна Мухановна': ['ЧЛ Стрид-Фуд Авеню Арбат']}</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ MAXI BURGER менеджера Курбенова Аруна Мухановна</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Каравай']}</t>
+          <t>Проверить заказы: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Каравай'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар']}</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Рахима Канат 7', 'ТОО GraMadRetail'], 'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ТОО GraMadRetail', 'ЧЛ Рахима Канат 7'], 'Салимбаев Адилбек Абдашевич': ['ИП  Канжигитова Айжан Алихановна']}</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем', 'ЧЛ Calista Ресто бар'], 'Салимбаев Адилбек Абдашевич': ['Чл 4 Казан Кафе']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Calista Ресто бар', 'ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем'], 'Салимбаев Адилбек Абдашевич': ['Чл 4 Казан Кафе']}</t>
         </is>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Lazru center', 'Чл Altyn adal'], 'Иордакий Владислав Викторович': ['ЧЛ Зангар Кафе', 'ЧЛ Адия Магазин'], 'Семашко Елена Васильевна': ['ЧЛ Дельфин Кафе']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['Чл Altyn adal', 'ЧЛ Lazru center'], 'Иордакий Владислав Викторович': ['ЧЛ Адия Магазин', 'ЧЛ Зангар Кафе'], 'Семашко Елена Васильевна': ['ЧЛ Дельфин Кафе']}</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN'], 'Иордакий Владислав Викторович': ['ЧЛ Яснуай Жибек жолы', 'ЧЛ Оптовик Магазин'], 'Семашко Елена Васильевна': ['ЧЛ Торабек Бутик Абай', 'ЧЛ Молочный бутик Коктем', 'ЧЛ Дильфуза Посуда', 'ЧЛ Умид Посуда подвал']}</t>
+          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Умид Посуда подвал', 'ЧЛ Торабек Бутик Абай', 'ЧЛ Дильфуза Посуда', 'ЧЛ Молочный бутик Коктем'], 'Курбенова Аруна Мухановна': ['ИП МАДИЕВА Кафе TJN'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин', 'ЧЛ Яснуай Жибек жолы']}</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Lazru center', 'Чл Altyn adal'], 'Иордакий Владислав Викторович': ['ЧЛ Зангар Кафе', 'ЧЛ Адия Магазин'], 'Семашко Елена Васильевна': ['ЧЛ Дельфин Кафе']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['Чл Altyn adal', 'ЧЛ Lazru center'], 'Иордакий Владислав Викторович': ['ЧЛ Адия Магазин', 'ЧЛ Зангар Кафе'], 'Семашко Елена Васильевна': ['ЧЛ Дельфин Кафе']}</t>
         </is>
       </c>
     </row>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Семашко Елена Васильевна': ['ЧЛ Мурат Али', 'ЧЛ Махмуд ата Сайрам', 'ЧЛ Полат Капланбек', 'ЧЛ Наргиза Посуда Крытый рынок'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13'], 'Курбенова Аруна Мухановна': ['ТОО "ТУРАН РИТЕЙЛ"', 'ЧЛ Винникова Ольга'], 'Иордакий Владислав Викторович': ['ЧЛ Волна Напитки', 'ЧЛ Адия Магазин'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "ТУРАН РИТЕЙЛ"', 'ЧЛ Винникова Ольга'], 'Семашко Елена Васильевна': ['ЧЛ Махмуд ата Сайрам', 'ЧЛ Наргиза Посуда Крытый рынок', 'ЧЛ Полат Капланбек', 'ЧЛ Мурат Али'], 'Иордакий Владислав Викторович': ['ЧЛ Адия Магазин', 'ЧЛ Волна Напитки'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Абзалова Ольга Валерьевна': ['ЧЛ. Досжан Айна базар бутик 13']}</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Барыс Оптовик Аруназ'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ Оптовик Суинше  57 бутик']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ Оптовик Суинше  57 бутик'], 'Курбенова Аруна Мухановна': ['ЧЛ Барыс Оптовик Аруназ']}</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ИП РАДНИК'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей'], 'Салимбаев Адилбек Абдашевич': ['ИП  Нурматов Нодир Собирович']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Нуржанбек'], 'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей'], 'Салимбаев Адилбек Абдашевич': ['ИП  Нурматов Нодир Собирович']}</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Артем', 'ЧЛ Мадина Кофе Туркестан'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Мадина Кофе Туркестан', 'ЧЛ Артем'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс']}</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Григорьева Ольга', 'ЧЛ Талгат Айна базар'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин'], 'Семашко Елена Васильевна': ['ИП Абдибаева А', 'ЧЛ Жасулан Казыгурт']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Григорьева Ольга', 'ЧЛ Талгат Айна базар'], 'Семашко Елена Васильевна': ['ИП Абдибаева А', 'ЧЛ Жасулан Казыгурт'], 'Иордакий Владислав Викторович': ['ЧЛ Оптовик Магазин']}</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе', 'ЧЛ Мадина Кофе Туркестан'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Нурсултан Барыс'], 'Курбенова Аруна Мухановна': ['ЧЛ Мадина Кофе Туркестан', 'ЧЛ Нуржанбек', 'ЧЛ Дмитрий Кафе']}</t>
         </is>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Мадлен Кен Баба', 'Чл. Омархан Ата кафе Самарканд', 'ЧЛ Талгат Айна базар'], 'Иордакий Владислав Викторович': ['ЧЛ Хоз товары Бутик']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Мадлен Кен Баба', 'Чл. Омархан Ата кафе Самарканд'], 'Иордакий Владислав Викторович': ['ЧЛ Хоз товары Бутик']}</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ КЕСЕ КАФЕ', 'ЧЛ ALI DEKOR'], 'Курбенова Аруна Мухановна': ['ЧЛ Махмуд', 'ТОО "Global Coffee Company"']}</t>
+          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ЧЛ Махмуд'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ ALI DEKOR', 'ЧЛ КЕСЕ КАФЕ']}</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Инфрастрой ЛТД" менеджера Курбенова Аруна Мухановна</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ. Гарсон Г.Иляева 33/11'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Шашлык', 'ЧЛ Три Самурая']}</t>
+          <t>Опасная позиция, проверить!: {'Салимбаев Адилбек Абдашевич': ['ЧЛ Шашлык', 'ЧЛ Три Самурая'], 'Абзалова Ольга Валерьевна': ['ЧЛ.Таукеева Гульжан Айна базар Мир упаковки', 'ЧЛ. Гарсон Г.Иляева 33/11']}</t>
         </is>
       </c>
     </row>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе', 'ТОО "Global Coffee Company"']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ЧЛ Дмитрий Кафе']}</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Дмитрий Кафе', 'ТОО "Global Coffee Company"']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ТОО "Global Coffee Company"', 'ЧЛ Дмитрий Кафе']}</t>
         </is>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Зайра', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Нуржанбек', 'ЧЛ Айша', 'ЧЛ Айнура Баклажки', 'ИП РАДНИК'], 'Суфибекова Канзай Учкеновна': ['ЧЛ Сотрудники Шымкент'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Сказка']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ИП РАДНИК', 'ЧЛ Айша', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Нуржанбек', 'ЧЛ Айнура Баклажки', 'ЧЛ Зайра'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Сказка'], 'Суфибекова Канзай Учкеновна': ['ЧЛ Сотрудники Шымкент']}</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Курбенова Аруна Мухановна': ['ЧЛ Calista Ресто бар'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ КЕСЕ КАФЕ', 'ЧЛ Кафе Teftelka'], 'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Ибраимова Рынок Оптовик бутик 45']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Талгат Айна базар', 'ЧЛ Ибраимова Рынок Оптовик бутик 45'], 'Салимбаев Адилбек Абдашевич': ['ЧЛ Кафе Teftelka', 'ЧЛ КЕСЕ КАФЕ'], 'Курбенова Аруна Мухановна': ['ЧЛ Calista Ресто бар']}</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Марго Диля', 'ЧЛ Талгат Айна базар', 'Чл Болатбек Акбар Чл Болатбек Акбар'], 'Семашко Елена Васильевна': ['ЧЛ Жети Асыл Все для кондитера']}</t>
+          <t>Опасная позиция, проверить!: {'Абзалова Ольга Валерьевна': ['ЧЛ Марго Диля', 'Чл Болатбек Акбар Чл Болатбек Акбар', 'ЧЛ Талгат Айна базар'], 'Семашко Елена Васильевна': ['ЧЛ Жети Асыл Все для кондитера']}</t>
         </is>
       </c>
     </row>
@@ -10546,7 +10546,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ АЯН 1000 мелочей', 'ЧЛ Марго Диля']}</t>
+          <t>Проверить заказы: {'Абзалова Ольга Валерьевна': ['ЧЛ Марго Диля', 'ЧЛ АЯН 1000 мелочей']}</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Чл Болатбек Акбар Чл Болатбек Акбар менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Камал Забадам', 'ЧЛ Барыс Оптовик Аруназ', 'ЧЛ Донс Мороженое']}</t>
+          <t>Проверить заказы: {'Курбенова Аруна Мухановна': ['ЧЛ Донс Мороженое', 'ЧЛ Камал Забадам', 'ЧЛ Барыс Оптовик Аруназ']}</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Ибраимова Рынок Оптовик бутик 45 менеджера Абзалова Ольга Валерьевна</t>
         </is>
       </c>
     </row>
